--- a/4. Control y Seguimiento/1.4.1 Control de Riesgos.xlsx
+++ b/4. Control y Seguimiento/1.4.1 Control de Riesgos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\intec\OneDrive\Escritorio\intecTroquian\4. Control y Seguimiento\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcelo Twice\Desktop\Plataforma Web Intecil\4. Control y Seguimiento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08CF8CC9-3535-41C1-8A59-870CF638FF05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E91D6D17-78A4-4088-8356-D4E375502FD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,62 +16,37 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$A$1:$I$28</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$A$1:$N$57</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
-  <si>
-    <t>Proyecto</t>
-  </si>
-  <si>
-    <t>Plataforma Web Intecil</t>
-  </si>
-  <si>
-    <t>[Fecha]</t>
-  </si>
-  <si>
-    <t>Responsable</t>
-  </si>
-  <si>
-    <t>[Nombre del responsable]</t>
-  </si>
-  <si>
-    <t>Versión</t>
-  </si>
-  <si>
-    <t>[Número de versión del informe]</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="71">
   <si>
     <t>Control de Riesgos</t>
   </si>
   <si>
-    <t>Fecha</t>
-  </si>
-  <si>
     <t>1. Identificación de Riesgos Actuales</t>
   </si>
   <si>
-    <t>ID del Riesgo</t>
-  </si>
-  <si>
-    <t>Descripción</t>
-  </si>
-  <si>
-    <t>Fecha de Identificación</t>
-  </si>
-  <si>
-    <t>Propietario</t>
-  </si>
-  <si>
     <t>Impacto</t>
   </si>
   <si>
@@ -81,80 +56,215 @@
     <t>Estado</t>
   </si>
   <si>
-    <t>R001</t>
-  </si>
-  <si>
-    <t>Ejemplo: Sobrecarga del servidor</t>
-  </si>
-  <si>
-    <t>Equipo de TI</t>
-  </si>
-  <si>
     <t>Alta</t>
   </si>
   <si>
-    <t>Media</t>
-  </si>
-  <si>
     <t>Activo</t>
   </si>
   <si>
-    <t>2. Evaluación de Riesgos</t>
-  </si>
-  <si>
-    <t>Impacto Potencial</t>
-  </si>
-  <si>
-    <t>Plan de Mitigación</t>
-  </si>
-  <si>
-    <t>Acciones Tomadas</t>
-  </si>
-  <si>
-    <t>Posible pérdida de datos críticos</t>
-  </si>
-  <si>
-    <t>Implementación de copias de seguridad periódicas</t>
-  </si>
-  <si>
-    <t>Configuración de respaldos semanales</t>
-  </si>
-  <si>
-    <t>3. Riesgos Cerrados</t>
-  </si>
-  <si>
-    <t>Fecha de Cierre</t>
-  </si>
-  <si>
-    <t>Justificación de Cierre</t>
-  </si>
-  <si>
-    <t>R002</t>
-  </si>
-  <si>
-    <t>Ejemplo: Riesgo de retraso en pruebas</t>
-  </si>
-  <si>
-    <t>Todas las pruebas completadas</t>
+    <t>Nro.</t>
+  </si>
+  <si>
+    <t>Riesgo/Evento de Riesgo</t>
+  </si>
+  <si>
+    <t>Categoría</t>
+  </si>
+  <si>
+    <t>Valor de Probabilidad</t>
+  </si>
+  <si>
+    <t>Valor Impacto</t>
+  </si>
+  <si>
+    <t>Nivel de Riesgo</t>
+  </si>
+  <si>
+    <t>1.1.1</t>
+  </si>
+  <si>
+    <t>Errores de configuración en el manejo del framework Django que permitan accesos no autorizados.</t>
+  </si>
+  <si>
+    <t>Riesgos Tecnicos</t>
+  </si>
+  <si>
+    <t>Posible</t>
+  </si>
+  <si>
+    <t>Indeseable</t>
+  </si>
+  <si>
+    <t>1.1.2</t>
+  </si>
+  <si>
+    <t>El código de la plataforma podría contener fallas o vulnerabilidades que permitan ataques como inyección SQL, Cross-Site Scripting (XSS) o Cross-Site Request Forgery (CSRF).</t>
+  </si>
+  <si>
+    <t>Improbable</t>
+  </si>
+  <si>
+    <t>1.1.3</t>
+  </si>
+  <si>
+    <t>El modelado de la base de datos no esta correctamente diseñado para abarcar los procesos de la plataforma</t>
+  </si>
+  <si>
+    <t>Intolerable</t>
+  </si>
+  <si>
+    <t>1.1.4</t>
+  </si>
+  <si>
+    <t>Habilidad y manejo deficiente de los desarrolladores en el manejo de las tecnologias a utilizar en sus respectivas areas (back-end / front-end)</t>
+  </si>
+  <si>
+    <t>1.1.5</t>
+  </si>
+  <si>
+    <t>Conflictos entre tecnologías o versiones incompatibles entre servidor de despliegue y el sistema web</t>
+  </si>
+  <si>
+    <t>1.1.6</t>
+  </si>
+  <si>
+    <t>Incompatibilidad del sistema con navegadores o dispositivos móviles usados por los empleados de INTECIL SPA.</t>
+  </si>
+  <si>
+    <t>Tolerable</t>
+  </si>
+  <si>
+    <t>1.1.7</t>
+  </si>
+  <si>
+    <t>Los módulos no cumplen con los requerimientos funcionales</t>
+  </si>
+  <si>
+    <t>Intorable</t>
+  </si>
+  <si>
+    <t>1.1.8</t>
+  </si>
+  <si>
+    <t>Uso ineficiente de recursos del servidor (CPU, memoria, almacenamiento).</t>
+  </si>
+  <si>
+    <t>1.2.1</t>
+  </si>
+  <si>
+    <t>Cambios en los requisitos del proyecto.</t>
+  </si>
+  <si>
+    <t>Riesgos de Gestión de Proyecto</t>
+  </si>
+  <si>
+    <t>1.2.2</t>
+  </si>
+  <si>
+    <t>Problemas de Coordinación Interna entre el equipo de desarrollo</t>
+  </si>
+  <si>
+    <t>1.2.3</t>
+  </si>
+  <si>
+    <t>Falta de adopción del sistema por los usuarios</t>
+  </si>
+  <si>
+    <t>1.2.4</t>
+  </si>
+  <si>
+    <t>Falta de comunicación entre el equipo de desarrollo y los stakeholders</t>
+  </si>
+  <si>
+    <t>1.2.5</t>
+  </si>
+  <si>
+    <t>Retrasos en el cronograma</t>
+  </si>
+  <si>
+    <t>1.2.6</t>
+  </si>
+  <si>
+    <t>Planificación deficiente del cronograma</t>
+  </si>
+  <si>
+    <t>1.3.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acceso no autorizado a la documentación del proyecto </t>
+  </si>
+  <si>
+    <t>Riesgos de Seguridad y Privacidad de la información</t>
+  </si>
+  <si>
+    <t>1.3.2</t>
+  </si>
+  <si>
+    <t>Información sensible o confidencial sobre los lotes de trabajo gestionados en la plataforma podría ser expuesta a personas no autorizadas.</t>
+  </si>
+  <si>
+    <t>Riesgos de Seguridad y Privacidad</t>
+  </si>
+  <si>
+    <t>1.4.1</t>
+  </si>
+  <si>
+    <t>Problemas recurrentes en el servidor o en la plataforma despues de la implementacion.</t>
+  </si>
+  <si>
+    <t>Riesgos de Operación y Mantenimiento</t>
+  </si>
+  <si>
+    <t>1.5.1</t>
+  </si>
+  <si>
+    <t>Caídas de internet o cortes de luz en la infraestructura tecnológica externa a INTECIL SPA.</t>
+  </si>
+  <si>
+    <t>Riesgos Externos</t>
+  </si>
+  <si>
+    <t>Resueltos</t>
+  </si>
+  <si>
+    <t>Resuelto</t>
+  </si>
+  <si>
+    <t>Categoría de Riesgo</t>
+  </si>
+  <si>
+    <t>Total Identificados</t>
+  </si>
+  <si>
+    <t>Activos</t>
+  </si>
+  <si>
+    <t>Pendientes</t>
+  </si>
+  <si>
+    <t>Riesgos Técnicos</t>
+  </si>
+  <si>
+    <t>2. Resumen del estado de los riesgos</t>
+  </si>
+  <si>
+    <t>3. Cambios Recientes en los Riesgos</t>
+  </si>
+  <si>
+    <t>No se realizaron cambios en la descripcion del riesgo, ni en las categorias de riesgo asociadas a cada riesgo, ni tampoco se cambio la matriz de riesgos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -175,13 +285,62 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0D0D0D"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.5"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC0C0C0"/>
+        <bgColor rgb="FFC0C0C0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -248,34 +407,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -285,14 +432,349 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="27">
+    <dxf>
+      <font>
+        <color rgb="FF0D0D0D"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF04E53"/>
+          <bgColor rgb="FFF04E53"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0D0D0D"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF04E53"/>
+          <bgColor rgb="FFF04E53"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0D0D0D"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF04E53"/>
+          <bgColor rgb="FFF04E53"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0D0D0D"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE67C05"/>
+          <bgColor rgb="FFE67C05"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0D0D0D"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE67C05"/>
+          <bgColor rgb="FFE67C05"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0D0D0D"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF9CF07"/>
+          <bgColor rgb="FFF9CF07"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0D0D0D"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF78B564"/>
+          <bgColor rgb="FF78B564"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0D0D0D"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF78B564"/>
+          <bgColor rgb="FF78B564"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF78B564"/>
+          <bgColor rgb="FF78B564"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0D0D0D"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF04E53"/>
+          <bgColor rgb="FFF04E53"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0D0D0D"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF04E53"/>
+          <bgColor rgb="FFF04E53"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0D0D0D"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF04E53"/>
+          <bgColor rgb="FFF04E53"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0D0D0D"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE67C05"/>
+          <bgColor rgb="FFE67C05"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0D0D0D"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE67C05"/>
+          <bgColor rgb="FFE67C05"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0D0D0D"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF9CF07"/>
+          <bgColor rgb="FFF9CF07"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0D0D0D"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF78B564"/>
+          <bgColor rgb="FF78B564"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0D0D0D"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF78B564"/>
+          <bgColor rgb="FF78B564"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF78B564"/>
+          <bgColor rgb="FF78B564"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0D0D0D"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF04E53"/>
+          <bgColor rgb="FFF04E53"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0D0D0D"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF04E53"/>
+          <bgColor rgb="FFF04E53"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0D0D0D"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF04E53"/>
+          <bgColor rgb="FFF04E53"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0D0D0D"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE67C05"/>
+          <bgColor rgb="FFE67C05"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0D0D0D"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE67C05"/>
+          <bgColor rgb="FFE67C05"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0D0D0D"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF9CF07"/>
+          <bgColor rgb="FFF9CF07"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0D0D0D"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF78B564"/>
+          <bgColor rgb="FF78B564"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0D0D0D"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF78B564"/>
+          <bgColor rgb="FF78B564"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF78B564"/>
+          <bgColor rgb="FF78B564"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -628,53 +1110,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:H27"/>
+  <dimension ref="B2:J48"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="27.21875" customWidth="1"/>
+    <col min="2" max="2" width="41.88671875" customWidth="1"/>
     <col min="3" max="3" width="24.109375" customWidth="1"/>
     <col min="4" max="4" width="27.109375" customWidth="1"/>
     <col min="5" max="5" width="28.44140625" customWidth="1"/>
     <col min="6" max="6" width="19.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
     <col min="8" max="8" width="17.6640625" customWidth="1"/>
+    <col min="9" max="9" width="20.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B2" s="11"/>
-      <c r="C2" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="12"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="13"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-    </row>
-    <row r="5" spans="2:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B2" s="7"/>
+      <c r="C2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B3" s="8"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B4" s="9"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" spans="2:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -683,227 +1166,813 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="7" spans="2:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="8" t="s">
+    <row r="7" spans="2:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B8" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B12" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="3" t="s">
+      <c r="E12" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="G12" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="H12" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="I12" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="J12" s="18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="B13" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="C13" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="D13" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="E13" s="14" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="2:8" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="B11" s="4" t="s">
+      <c r="F13" s="14">
+        <v>2</v>
+      </c>
+      <c r="G13" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="H13" s="14">
+        <v>3</v>
+      </c>
+      <c r="I13" s="19">
+        <f t="shared" ref="I13:I28" si="0">F13*H13</f>
+        <v>6</v>
+      </c>
+      <c r="J13" s="20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" ht="105.6" x14ac:dyDescent="0.3">
+      <c r="B14" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="C14" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="14">
+        <v>1</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="14">
+        <v>3</v>
+      </c>
+      <c r="I14" s="19">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="J14" s="20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" ht="66" x14ac:dyDescent="0.3">
+      <c r="B15" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="14">
         <v>2</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="4" t="s">
+      <c r="G15" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="14">
+        <v>4</v>
+      </c>
+      <c r="I15" s="19">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="J15" s="20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" ht="92.4" x14ac:dyDescent="0.3">
+      <c r="B16" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="14">
+        <v>2</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" s="14">
+        <v>3</v>
+      </c>
+      <c r="I16" s="19">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="J16" s="20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="B17" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="8" t="s">
+      <c r="F17" s="14">
+        <v>1</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="14">
+        <v>3</v>
+      </c>
+      <c r="I17" s="19">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="J17" s="20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" ht="66" x14ac:dyDescent="0.3">
+      <c r="B18" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="15">
+        <v>1</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="15">
+        <v>2</v>
+      </c>
+      <c r="I18" s="19">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J18" s="20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="B19" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="15">
+        <v>1</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="H19" s="15">
+        <v>4</v>
+      </c>
+      <c r="I19" s="19">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="J19" s="20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="15">
+        <v>1</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" s="15">
+        <v>3</v>
+      </c>
+      <c r="I20" s="19">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="J20" s="20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="B21" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="15">
+        <v>1</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" s="15">
+        <v>3</v>
+      </c>
+      <c r="I21" s="19">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="J21" s="20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B22" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="15">
+        <v>2</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" s="15">
+        <v>3</v>
+      </c>
+      <c r="I22" s="19">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="J22" s="20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="B23" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" s="15">
+        <v>2</v>
+      </c>
+      <c r="G23" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-    </row>
-    <row r="15" spans="2:8" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="B15" s="4" t="s">
+      <c r="H23" s="15">
+        <v>4</v>
+      </c>
+      <c r="I23" s="19">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="J23" s="20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" ht="53.4" x14ac:dyDescent="0.3">
+      <c r="B24" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" s="15">
+        <v>1</v>
+      </c>
+      <c r="G24" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-    </row>
-    <row r="16" spans="2:8" ht="15" x14ac:dyDescent="0.3">
-      <c r="B16" s="10"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B17" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-    </row>
-    <row r="20" spans="2:8" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="B20" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" s="4" t="s">
+      <c r="H24" s="15">
+        <v>3</v>
+      </c>
+      <c r="I24" s="19">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="J24" s="20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="B25" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F25" s="15">
+        <v>4</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H25" s="15">
+        <v>3</v>
+      </c>
+      <c r="I25" s="19">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="J25" s="20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="B26" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" s="15">
         <v>2</v>
       </c>
-      <c r="E20" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B24" s="5" t="s">
+      <c r="G26" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H26" s="15">
+        <v>3</v>
+      </c>
+      <c r="I26" s="19">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="J26" s="20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="B27" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" s="15">
+        <v>2</v>
+      </c>
+      <c r="G27" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H27" s="15">
+        <v>3</v>
+      </c>
+      <c r="I27" s="19">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="J27" s="20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" ht="79.2" x14ac:dyDescent="0.3">
+      <c r="B28" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28" s="15">
+        <v>2</v>
+      </c>
+      <c r="G28" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H28" s="15">
+        <v>4</v>
+      </c>
+      <c r="I28" s="19">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="J28" s="20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="B29" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" s="15">
+        <v>1</v>
+      </c>
+      <c r="G29" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H29" s="15">
+        <v>3</v>
+      </c>
+      <c r="I29" s="19">
+        <f>F29*H29</f>
+        <v>3</v>
+      </c>
+      <c r="J29" s="20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="B30" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" s="15">
+        <v>2</v>
+      </c>
+      <c r="G30" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H30" s="15">
+        <v>4</v>
+      </c>
+      <c r="I30" s="19">
+        <f>F30*H30</f>
+        <v>8</v>
+      </c>
+      <c r="J30" s="20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B34" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B36" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C36" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D36" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E36" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="F36" s="21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B37" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C37" s="16">
+        <v>7</v>
+      </c>
+      <c r="D37" s="16">
         <v>0</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="E37" s="16">
+        <v>7</v>
+      </c>
+      <c r="F37" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B38" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" s="16">
+        <v>6</v>
+      </c>
+      <c r="D38" s="16">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B25" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="7" t="s">
+      <c r="E38" s="16">
+        <v>5</v>
+      </c>
+      <c r="F38" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39" s="16">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B26" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="B27" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>6</v>
-      </c>
+      <c r="D39" s="16">
+        <v>0</v>
+      </c>
+      <c r="E39" s="16">
+        <v>2</v>
+      </c>
+      <c r="F39" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B40" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C40" s="16">
+        <v>1</v>
+      </c>
+      <c r="D40" s="16">
+        <v>0</v>
+      </c>
+      <c r="E40" s="16">
+        <v>1</v>
+      </c>
+      <c r="F40" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B41" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C41" s="16">
+        <v>1</v>
+      </c>
+      <c r="D41" s="16">
+        <v>0</v>
+      </c>
+      <c r="E41" s="16">
+        <v>1</v>
+      </c>
+      <c r="F41" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="B44" s="22" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B46" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C46" s="23"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="23"/>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B47" s="23"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="23"/>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B48" s="23"/>
+      <c r="C48" s="23"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C2:H4"/>
+    <mergeCell ref="B46:F48"/>
   </mergeCells>
+  <conditionalFormatting sqref="I12:I30">
+    <cfRule type="cellIs" dxfId="17" priority="10" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="11" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="12" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="15" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="16" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="17" operator="equal">
+      <formula>12</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="18" operator="equal">
+      <formula>16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J12">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="8" operator="equal">
+      <formula>12</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="9" operator="equal">
+      <formula>16</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="43" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
